--- a/ニッセープロダクツ出勤簿1月13日.xlsx
+++ b/ニッセープロダクツ出勤簿1月13日.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timaz\Documents\PythonFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB8B9C-87F0-4175-BAF6-2368404C812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC86D15-44E7-4752-96CF-CBB366789FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="1000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'0830'!$A$1:$L$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'0830'!$A$1:$L$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1000'!$A$1:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="91">
   <si>
     <t>派遣先：株式会社 関東ダイエットクック 神奈川工場</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>オオイシ　ジイ　ダンゴ</t>
+  </si>
+  <si>
+    <t>仕分け</t>
   </si>
   <si>
     <t>シングア　ピージエイ　ヴアイネス</t>
@@ -220,9 +226,6 @@
     <t>ギミレ　ハリ　カラ</t>
   </si>
   <si>
-    <t>キット室</t>
-  </si>
-  <si>
     <t xml:space="preserve">サルマ　アヌパ </t>
   </si>
   <si>
@@ -241,13 +244,13 @@
     <t>村山　アンナリザ</t>
   </si>
   <si>
-    <t>ジャン　アン　ニー</t>
-  </si>
-  <si>
     <t>ガハ　ミヌ　クマリ</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>カダカ　サントシュ　クマル</t>
   </si>
   <si>
     <t>コナ　エドナ　ラモーレス</t>
@@ -298,15 +301,6 @@
     <t>サポコタ　ビマラ</t>
   </si>
   <si>
-    <t>オオイシ　ジイ　ダンゴ</t>
-  </si>
-  <si>
-    <t>仕分け</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>食数</t>
   </si>
   <si>
@@ -315,6 +309,10 @@
   <si>
     <t>始業開始
 予定時間</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -325,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -423,14 +421,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="HGS明朝B"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic UI Semibold"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -732,10 +723,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,55 +744,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="31"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1223,10 +1172,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IM199"/>
+  <dimension ref="A1:IM202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="74" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="74" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1234,11 +1183,11 @@
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
     <col min="5" max="5" width="3.77734375" style="19" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
   </cols>
@@ -1259,7 +1208,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="49">
-        <v>45670.482070262493</v>
+        <v>45670.95098929145</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -1704,21 +1653,21 @@
       <c r="IM2" s="5"/>
     </row>
     <row r="3" spans="1:247" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="str">
+      <c r="A3" s="50" t="str">
         <f>"就業日：　"&amp;YEAR(M1)&amp;"　年　"&amp;MONTH(M1)&amp;"　月　"&amp;DAY(M1)&amp;"　日（　"&amp;CHOOSE(WEEKDAY(M1),"日","月","火","水","木","金","土")&amp;"　）"</f>
         <v>就業日：　2025　年　1　月　13　日（　月　）</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -1945,11 +1894,11 @@
       <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="45"/>
       <c r="M4" s="5"/>
       <c r="AI4" s="5"/>
@@ -2177,12 +2126,12 @@
       <c r="H5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2862,7 +2811,7 @@
       <c r="IL7" s="5"/>
       <c r="IM7" s="5"/>
     </row>
-    <row r="8" spans="1:247" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:247" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3618,7 +3567,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="18"/>
       <c r="L11" s="36" t="str">
-        <f>IF(OR(I12="：",I12=""),"",(I12-H12-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I55="：",I55=""),"",(I55-H55-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M11" s="35"/>
@@ -3847,11 +3796,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" s="42">
         <v>0.35416666666666669</v>
@@ -3864,10 +3813,7 @@
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="36" t="str">
-        <f>IF(OR(I13="：",I13=""),"",(I13-H13-(1/24)-8/24)*24)</f>
-        <v/>
-      </c>
+      <c r="L12" s="36"/>
       <c r="M12" s="35"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -4094,11 +4040,11 @@
         <v>27</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" s="42">
         <v>0.35416666666666669</v>
@@ -4111,7 +4057,10 @@
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="36" t="str">
+        <f>IF(OR(I13="：",I13=""),"",(I13-H13-(1/24)-8/24)*24)</f>
+        <v/>
+      </c>
       <c r="M13" s="35"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -4338,11 +4287,11 @@
         <v>27</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" s="42">
         <v>0.35416666666666669</v>
@@ -4584,12 +4533,12 @@
       <c r="C15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>33</v>
+      <c r="D15" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" s="42">
         <v>0.35416666666666669</v>
@@ -4831,12 +4780,12 @@
       <c r="C16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>34</v>
+      <c r="D16" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" s="42">
         <v>0.35416666666666669</v>
@@ -4849,10 +4798,7 @@
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="36" t="str">
-        <f>IF(OR(I16="：",I16=""),"",(I16-H16-(1/24)-8/24)*24)</f>
-        <v/>
-      </c>
+      <c r="L16" s="36"/>
       <c r="M16" s="35"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
@@ -5079,11 +5025,11 @@
         <v>27</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" s="42">
         <v>0.35416666666666669</v>
@@ -5096,7 +5042,10 @@
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="36"/>
+      <c r="L17" s="36" t="str">
+        <f>IF(OR(I17="：",I17=""),"",(I17-H17-(1/24)-8/24)*24)</f>
+        <v/>
+      </c>
       <c r="M17" s="35"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
@@ -5323,11 +5272,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" s="42">
         <v>0.35416666666666669</v>
@@ -5340,10 +5289,7 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="36" t="str">
-        <f>IF(OR(I18="：",I18=""),"",(I18-H18-(1/24)-8/24)*24)</f>
-        <v/>
-      </c>
+      <c r="L18" s="36"/>
       <c r="M18" s="35"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
@@ -5569,14 +5515,14 @@
       <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>37</v>
+      <c r="D19" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="42">
         <v>0.35416666666666669</v>
@@ -5816,13 +5762,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>39</v>
       </c>
       <c r="G20" s="42">
         <v>0.35416666666666669</v>
@@ -5835,7 +5781,10 @@
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="36"/>
+      <c r="L20" s="36" t="str">
+        <f>IF(OR(I20="：",I20=""),"",(I20-H21-(1/24)-8/24)*24)</f>
+        <v/>
+      </c>
       <c r="M20" s="35"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
@@ -6061,14 +6010,14 @@
       <c r="C21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>42</v>
+      <c r="D21" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="42">
         <v>0.35416666666666669</v>
@@ -6310,14 +6259,14 @@
       <c r="C22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>44</v>
+      <c r="D22" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" s="42">
         <v>0.35416666666666669</v>
@@ -6559,14 +6508,14 @@
       <c r="C23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>46</v>
+      <c r="D23" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="42">
         <v>0.35416666666666669</v>
@@ -6808,14 +6757,14 @@
       <c r="C24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="47" t="s">
-        <v>47</v>
+      <c r="D24" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" s="42">
         <v>0.35416666666666669</v>
@@ -6828,10 +6777,7 @@
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="36" t="str">
-        <f>IF(OR(I24="：",I24=""),"",(I24-H25-(1/24)-8/24)*24)</f>
-        <v/>
-      </c>
+      <c r="L24" s="36"/>
       <c r="M24" s="35"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -7057,14 +7003,14 @@
       <c r="C25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>49</v>
+      <c r="D25" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="42">
         <v>0.35416666666666669</v>
@@ -7304,13 +7250,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G26" s="42">
         <v>0.35416666666666669</v>
@@ -7550,13 +7496,13 @@
         <v>21</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" s="42">
         <v>0.35416666666666669</v>
@@ -7796,13 +7742,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" s="42">
         <v>0.35416666666666669</v>
@@ -7815,7 +7761,10 @@
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="36"/>
+      <c r="L28" s="36" t="str">
+        <f>IF(OR(I33="：",I33=""),"",(I33-H30-(1/24)-8/24)*24)</f>
+        <v/>
+      </c>
       <c r="M28" s="35"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
@@ -8042,11 +7991,11 @@
         <v>21</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="42">
         <v>0.35416666666666669</v>
@@ -8060,7 +8009,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="18"/>
       <c r="L29" s="36" t="str">
-        <f>IF(OR(I34="：",I34=""),"",(I34-H31-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I28="：",I28=""),"",(I28-H34-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M29" s="35"/>
@@ -8289,13 +8238,13 @@
         <v>21</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G30" s="42">
         <v>0.35416666666666669</v>
@@ -8309,7 +8258,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="18"/>
       <c r="L30" s="36" t="str">
-        <f>IF(OR(I29="：",I29=""),"",(I29-H35-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I29="：",I29=""),"",(I29-H28-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M30" s="35"/>
@@ -8538,11 +8487,13 @@
         <v>21</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="41" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G31" s="42">
         <v>0.35416666666666669</v>
@@ -8785,13 +8736,13 @@
         <v>21</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G32" s="42">
         <v>0.35416666666666669</v>
@@ -8805,7 +8756,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="18"/>
       <c r="L32" s="36" t="str">
-        <f>IF(OR(I31="：",I31=""),"",(I31-H30-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I31="：",I31=""),"",(I31-H32-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M32" s="35"/>
@@ -9034,13 +8985,13 @@
         <v>21</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G33" s="42">
         <v>0.35416666666666669</v>
@@ -9054,7 +9005,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="18"/>
       <c r="L33" s="36" t="str">
-        <f>IF(OR(I32="：",I32=""),"",(I32-H33-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I36="：",I36=""),"",(I36-H37-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M33" s="35"/>
@@ -9283,13 +9234,13 @@
         <v>21</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34" s="42">
         <v>0.35416666666666669</v>
@@ -9303,7 +9254,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="18"/>
       <c r="L34" s="36" t="str">
-        <f>IF(OR(I37="：",I37=""),"",(I37-H38-(1/24)-8/24)*24)</f>
+        <f>IF(OR(I32="：",I32=""),"",(I32-H33-(1/24)-8/24)*24)</f>
         <v/>
       </c>
       <c r="M34" s="35"/>
@@ -9532,13 +9483,13 @@
         <v>21</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35" s="42">
         <v>0.35416666666666669</v>
@@ -9551,10 +9502,7 @@
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="36" t="str">
-        <f>IF(OR(I33="：",I33=""),"",(I33-H34-(1/24)-8/24)*24)</f>
-        <v/>
-      </c>
+      <c r="L35" s="36"/>
       <c r="M35" s="35"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
@@ -9781,13 +9729,13 @@
         <v>21</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G36" s="42">
         <v>0.35416666666666669</v>
@@ -10021,19 +9969,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="40">
-        <v>5852</v>
+        <v>6009</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>67</v>
+      <c r="D37" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" s="42">
         <v>0.35416666666666669</v>
@@ -10267,19 +10215,17 @@
         <v>29</v>
       </c>
       <c r="B38" s="40">
-        <v>6009</v>
+        <v>6071</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E38" s="39"/>
       <c r="F38" s="41" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G38" s="42">
         <v>0.35416666666666669</v>
@@ -10519,13 +10465,13 @@
         <v>21</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" s="42">
         <v>0.35416666666666669</v>
@@ -10765,13 +10711,13 @@
         <v>21</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G40" s="42">
         <v>0.35416666666666669</v>
@@ -11011,13 +10957,13 @@
         <v>21</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G41" s="42">
         <v>0.35416666666666669</v>
@@ -11257,13 +11203,13 @@
         <v>21</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G42" s="42">
         <v>0.35416666666666669</v>
@@ -11503,13 +11449,13 @@
         <v>21</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G43" s="42">
         <v>0.35416666666666669</v>
@@ -11749,11 +11695,13 @@
         <v>21</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="F44" s="41" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G44" s="42">
         <v>0.35416666666666669</v>
@@ -11993,13 +11941,13 @@
         <v>21</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G45" s="42">
         <v>0.35416666666666669</v>
@@ -12239,13 +12187,13 @@
         <v>27</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G46" s="42">
         <v>0.35416666666666669</v>
@@ -12485,13 +12433,13 @@
         <v>21</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47" s="42">
         <v>0.35416666666666669</v>
@@ -12731,13 +12679,13 @@
         <v>21</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>39</v>
       </c>
       <c r="G48" s="42">
         <v>0.35416666666666669</v>
@@ -12977,13 +12925,13 @@
         <v>21</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>39</v>
       </c>
       <c r="G49" s="42">
         <v>0.35416666666666669</v>
@@ -13223,13 +13171,13 @@
         <v>21</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G50" s="42">
         <v>0.35416666666666669</v>
@@ -13469,13 +13417,13 @@
         <v>21</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G51" s="42">
         <v>0.35416666666666669</v>
@@ -13715,11 +13663,11 @@
         <v>21</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" s="42">
         <v>0.35416666666666669</v>
@@ -13959,13 +13907,13 @@
         <v>21</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G53" s="42">
         <v>0.35416666666666669</v>
@@ -14194,7 +14142,7 @@
       <c r="IL53" s="5"/>
       <c r="IM53" s="5"/>
     </row>
-    <row r="54" spans="1:247" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:247" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>45</v>
       </c>
@@ -14203,7 +14151,7 @@
       <c r="D54" s="48"/>
       <c r="E54" s="39"/>
       <c r="F54" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54" s="42">
         <v>0.35416666666666669</v>
@@ -14436,15 +14384,21 @@
       <c r="A55" s="11">
         <v>46</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="40">
+        <v>6663</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="E55" s="39"/>
       <c r="F55" s="41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G55" s="42">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>24</v>
@@ -14453,8 +14407,13 @@
         <v>24</v>
       </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="36"/>
+      <c r="K55" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L55" s="36" t="str">
+        <f>IF(OR(I12="：",I12=""),"",(I12-H12-(1/24)-8/24)*24)</f>
+        <v/>
+      </c>
       <c r="M55" s="16"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
@@ -14674,21 +14633,15 @@
       <c r="A56" s="11">
         <v>47</v>
       </c>
-      <c r="B56" s="40">
-        <v>6663</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>86</v>
-      </c>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="39"/>
       <c r="F56" s="41" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G56" s="42">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>24</v>
@@ -14697,9 +14650,7 @@
         <v>24</v>
       </c>
       <c r="J56" s="13"/>
-      <c r="K56" s="50" t="s">
-        <v>88</v>
-      </c>
+      <c r="K56" s="18"/>
       <c r="L56" s="36"/>
       <c r="M56" s="16"/>
       <c r="AI56" s="5"/>
@@ -14925,7 +14876,7 @@
       <c r="D57" s="48"/>
       <c r="E57" s="39"/>
       <c r="F57" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" s="42">
         <v>0.35416666666666669</v>
@@ -15154,7 +15105,7 @@
       <c r="IL57" s="5"/>
       <c r="IM57" s="5"/>
     </row>
-    <row r="58" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>49</v>
       </c>
@@ -15163,7 +15114,7 @@
       <c r="D58" s="48"/>
       <c r="E58" s="39"/>
       <c r="F58" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G58" s="42">
         <v>0.35416666666666669</v>
@@ -15392,7 +15343,7 @@
       <c r="IL58" s="5"/>
       <c r="IM58" s="5"/>
     </row>
-    <row r="59" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>50</v>
       </c>
@@ -15401,7 +15352,7 @@
       <c r="D59" s="48"/>
       <c r="E59" s="39"/>
       <c r="F59" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" s="42">
         <v>0.35416666666666669</v>
@@ -15630,7 +15581,7 @@
       <c r="IL59" s="5"/>
       <c r="IM59" s="5"/>
     </row>
-    <row r="60" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>51</v>
       </c>
@@ -15639,7 +15590,7 @@
       <c r="D60" s="48"/>
       <c r="E60" s="39"/>
       <c r="F60" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" s="42">
         <v>0.35416666666666669</v>
@@ -15868,7 +15819,7 @@
       <c r="IL60" s="5"/>
       <c r="IM60" s="5"/>
     </row>
-    <row r="61" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>52</v>
       </c>
@@ -15877,7 +15828,7 @@
       <c r="D61" s="48"/>
       <c r="E61" s="39"/>
       <c r="F61" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G61" s="42">
         <v>0.35416666666666669</v>
@@ -16106,7 +16057,7 @@
       <c r="IL61" s="5"/>
       <c r="IM61" s="5"/>
     </row>
-    <row r="62" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>53</v>
       </c>
@@ -16115,7 +16066,7 @@
       <c r="D62" s="48"/>
       <c r="E62" s="39"/>
       <c r="F62" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G62" s="42">
         <v>0.35416666666666669</v>
@@ -16344,7 +16295,7 @@
       <c r="IL62" s="5"/>
       <c r="IM62" s="5"/>
     </row>
-    <row r="63" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>54</v>
       </c>
@@ -16353,7 +16304,7 @@
       <c r="D63" s="48"/>
       <c r="E63" s="39"/>
       <c r="F63" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G63" s="42">
         <v>0.35416666666666669</v>
@@ -16582,7 +16533,7 @@
       <c r="IL63" s="5"/>
       <c r="IM63" s="5"/>
     </row>
-    <row r="64" spans="1:247" ht="27.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>55</v>
       </c>
@@ -16591,7 +16542,7 @@
       <c r="D64" s="48"/>
       <c r="E64" s="39"/>
       <c r="F64" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G64" s="42">
         <v>0.35416666666666669</v>
@@ -16820,79 +16771,790 @@
       <c r="IL64" s="5"/>
       <c r="IM64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K65" s="21"/>
+    <row r="65" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>56</v>
+      </c>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="42">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="18"/>
       <c r="L65" s="36"/>
+      <c r="M65" s="16"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="5"/>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
+      <c r="BF65" s="5"/>
+      <c r="BG65" s="5"/>
+      <c r="BH65" s="5"/>
+      <c r="BI65" s="5"/>
+      <c r="BJ65" s="5"/>
+      <c r="BK65" s="5"/>
+      <c r="BL65" s="5"/>
+      <c r="BM65" s="5"/>
+      <c r="BN65" s="5"/>
+      <c r="BO65" s="5"/>
+      <c r="BP65" s="5"/>
+      <c r="BQ65" s="5"/>
+      <c r="BR65" s="5"/>
+      <c r="BS65" s="5"/>
+      <c r="BT65" s="5"/>
+      <c r="BU65" s="5"/>
+      <c r="BV65" s="5"/>
+      <c r="BW65" s="5"/>
+      <c r="BX65" s="5"/>
+      <c r="BY65" s="5"/>
+      <c r="BZ65" s="5"/>
+      <c r="CA65" s="5"/>
+      <c r="CB65" s="5"/>
+      <c r="CC65" s="5"/>
+      <c r="CD65" s="5"/>
+      <c r="CE65" s="5"/>
+      <c r="CF65" s="5"/>
+      <c r="CG65" s="5"/>
+      <c r="CH65" s="5"/>
+      <c r="CI65" s="5"/>
+      <c r="CJ65" s="5"/>
+      <c r="CK65" s="5"/>
+      <c r="CL65" s="5"/>
+      <c r="CM65" s="5"/>
+      <c r="CN65" s="5"/>
+      <c r="CO65" s="5"/>
+      <c r="CP65" s="5"/>
+      <c r="CQ65" s="5"/>
+      <c r="CR65" s="5"/>
+      <c r="CS65" s="5"/>
+      <c r="CT65" s="5"/>
+      <c r="CU65" s="5"/>
+      <c r="CV65" s="5"/>
+      <c r="CW65" s="5"/>
+      <c r="CX65" s="5"/>
+      <c r="CY65" s="5"/>
+      <c r="CZ65" s="5"/>
+      <c r="DA65" s="5"/>
+      <c r="DB65" s="5"/>
+      <c r="DC65" s="5"/>
+      <c r="DD65" s="5"/>
+      <c r="DE65" s="5"/>
+      <c r="DF65" s="5"/>
+      <c r="DG65" s="5"/>
+      <c r="DH65" s="5"/>
+      <c r="DI65" s="5"/>
+      <c r="DJ65" s="5"/>
+      <c r="DK65" s="5"/>
+      <c r="DL65" s="5"/>
+      <c r="DM65" s="5"/>
+      <c r="DN65" s="5"/>
+      <c r="DO65" s="5"/>
+      <c r="DP65" s="5"/>
+      <c r="DQ65" s="5"/>
+      <c r="DR65" s="5"/>
+      <c r="DS65" s="5"/>
+      <c r="DT65" s="5"/>
+      <c r="DU65" s="5"/>
+      <c r="DV65" s="5"/>
+      <c r="DW65" s="5"/>
+      <c r="DX65" s="5"/>
+      <c r="DY65" s="5"/>
+      <c r="DZ65" s="5"/>
+      <c r="EA65" s="5"/>
+      <c r="EB65" s="5"/>
+      <c r="EC65" s="5"/>
+      <c r="ED65" s="5"/>
+      <c r="EE65" s="5"/>
+      <c r="EF65" s="5"/>
+      <c r="EG65" s="5"/>
+      <c r="EH65" s="5"/>
+      <c r="EI65" s="5"/>
+      <c r="EJ65" s="5"/>
+      <c r="EK65" s="5"/>
+      <c r="EL65" s="5"/>
+      <c r="EM65" s="5"/>
+      <c r="EN65" s="5"/>
+      <c r="EO65" s="5"/>
+      <c r="EP65" s="5"/>
+      <c r="EQ65" s="5"/>
+      <c r="ER65" s="5"/>
+      <c r="ES65" s="5"/>
+      <c r="ET65" s="5"/>
+      <c r="EU65" s="5"/>
+      <c r="EV65" s="5"/>
+      <c r="EW65" s="5"/>
+      <c r="EX65" s="5"/>
+      <c r="EY65" s="5"/>
+      <c r="EZ65" s="5"/>
+      <c r="FA65" s="5"/>
+      <c r="FB65" s="5"/>
+      <c r="FC65" s="5"/>
+      <c r="FD65" s="5"/>
+      <c r="FE65" s="5"/>
+      <c r="FF65" s="5"/>
+      <c r="FG65" s="5"/>
+      <c r="FH65" s="5"/>
+      <c r="FI65" s="5"/>
+      <c r="FJ65" s="5"/>
+      <c r="FK65" s="5"/>
+      <c r="FL65" s="5"/>
+      <c r="FM65" s="5"/>
+      <c r="FN65" s="5"/>
+      <c r="FO65" s="5"/>
+      <c r="FP65" s="5"/>
+      <c r="FQ65" s="5"/>
+      <c r="FR65" s="5"/>
+      <c r="FS65" s="5"/>
+      <c r="FT65" s="5"/>
+      <c r="FU65" s="5"/>
+      <c r="FV65" s="5"/>
+      <c r="FW65" s="5"/>
+      <c r="FX65" s="5"/>
+      <c r="FY65" s="5"/>
+      <c r="FZ65" s="5"/>
+      <c r="GA65" s="5"/>
+      <c r="GB65" s="5"/>
+      <c r="GC65" s="5"/>
+      <c r="GD65" s="5"/>
+      <c r="GE65" s="5"/>
+      <c r="GF65" s="5"/>
+      <c r="GG65" s="5"/>
+      <c r="GH65" s="5"/>
+      <c r="GI65" s="5"/>
+      <c r="GJ65" s="5"/>
+      <c r="GK65" s="5"/>
+      <c r="GL65" s="5"/>
+      <c r="GM65" s="5"/>
+      <c r="GN65" s="5"/>
+      <c r="GO65" s="5"/>
+      <c r="GP65" s="5"/>
+      <c r="GQ65" s="5"/>
+      <c r="GR65" s="5"/>
+      <c r="GS65" s="5"/>
+      <c r="GT65" s="5"/>
+      <c r="GU65" s="5"/>
+      <c r="GV65" s="5"/>
+      <c r="GW65" s="5"/>
+      <c r="GX65" s="5"/>
+      <c r="GY65" s="5"/>
+      <c r="GZ65" s="5"/>
+      <c r="HA65" s="5"/>
+      <c r="HB65" s="5"/>
+      <c r="HC65" s="5"/>
+      <c r="HD65" s="5"/>
+      <c r="HE65" s="5"/>
+      <c r="HF65" s="5"/>
+      <c r="HG65" s="5"/>
+      <c r="HH65" s="5"/>
+      <c r="HI65" s="5"/>
+      <c r="HJ65" s="5"/>
+      <c r="HK65" s="5"/>
+      <c r="HL65" s="5"/>
+      <c r="HM65" s="5"/>
+      <c r="HN65" s="5"/>
+      <c r="HO65" s="5"/>
+      <c r="HP65" s="5"/>
+      <c r="HQ65" s="5"/>
+      <c r="HR65" s="5"/>
+      <c r="HS65" s="5"/>
+      <c r="HT65" s="5"/>
+      <c r="HU65" s="5"/>
+      <c r="HV65" s="5"/>
+      <c r="HW65" s="5"/>
+      <c r="HX65" s="5"/>
+      <c r="HY65" s="5"/>
+      <c r="HZ65" s="5"/>
+      <c r="IA65" s="5"/>
+      <c r="IB65" s="5"/>
+      <c r="IC65" s="5"/>
+      <c r="ID65" s="5"/>
+      <c r="IE65" s="5"/>
+      <c r="IF65" s="5"/>
+      <c r="IG65" s="5"/>
+      <c r="IH65" s="5"/>
+      <c r="II65" s="5"/>
+      <c r="IJ65" s="5"/>
+      <c r="IK65" s="5"/>
+      <c r="IL65" s="5"/>
+      <c r="IM65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J66" s="22"/>
+    <row r="66" spans="1:247" ht="27.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>57</v>
+      </c>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="42">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="16"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="5"/>
+      <c r="BK66" s="5"/>
+      <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
+      <c r="BN66" s="5"/>
+      <c r="BO66" s="5"/>
+      <c r="BP66" s="5"/>
+      <c r="BQ66" s="5"/>
+      <c r="BR66" s="5"/>
+      <c r="BS66" s="5"/>
+      <c r="BT66" s="5"/>
+      <c r="BU66" s="5"/>
+      <c r="BV66" s="5"/>
+      <c r="BW66" s="5"/>
+      <c r="BX66" s="5"/>
+      <c r="BY66" s="5"/>
+      <c r="BZ66" s="5"/>
+      <c r="CA66" s="5"/>
+      <c r="CB66" s="5"/>
+      <c r="CC66" s="5"/>
+      <c r="CD66" s="5"/>
+      <c r="CE66" s="5"/>
+      <c r="CF66" s="5"/>
+      <c r="CG66" s="5"/>
+      <c r="CH66" s="5"/>
+      <c r="CI66" s="5"/>
+      <c r="CJ66" s="5"/>
+      <c r="CK66" s="5"/>
+      <c r="CL66" s="5"/>
+      <c r="CM66" s="5"/>
+      <c r="CN66" s="5"/>
+      <c r="CO66" s="5"/>
+      <c r="CP66" s="5"/>
+      <c r="CQ66" s="5"/>
+      <c r="CR66" s="5"/>
+      <c r="CS66" s="5"/>
+      <c r="CT66" s="5"/>
+      <c r="CU66" s="5"/>
+      <c r="CV66" s="5"/>
+      <c r="CW66" s="5"/>
+      <c r="CX66" s="5"/>
+      <c r="CY66" s="5"/>
+      <c r="CZ66" s="5"/>
+      <c r="DA66" s="5"/>
+      <c r="DB66" s="5"/>
+      <c r="DC66" s="5"/>
+      <c r="DD66" s="5"/>
+      <c r="DE66" s="5"/>
+      <c r="DF66" s="5"/>
+      <c r="DG66" s="5"/>
+      <c r="DH66" s="5"/>
+      <c r="DI66" s="5"/>
+      <c r="DJ66" s="5"/>
+      <c r="DK66" s="5"/>
+      <c r="DL66" s="5"/>
+      <c r="DM66" s="5"/>
+      <c r="DN66" s="5"/>
+      <c r="DO66" s="5"/>
+      <c r="DP66" s="5"/>
+      <c r="DQ66" s="5"/>
+      <c r="DR66" s="5"/>
+      <c r="DS66" s="5"/>
+      <c r="DT66" s="5"/>
+      <c r="DU66" s="5"/>
+      <c r="DV66" s="5"/>
+      <c r="DW66" s="5"/>
+      <c r="DX66" s="5"/>
+      <c r="DY66" s="5"/>
+      <c r="DZ66" s="5"/>
+      <c r="EA66" s="5"/>
+      <c r="EB66" s="5"/>
+      <c r="EC66" s="5"/>
+      <c r="ED66" s="5"/>
+      <c r="EE66" s="5"/>
+      <c r="EF66" s="5"/>
+      <c r="EG66" s="5"/>
+      <c r="EH66" s="5"/>
+      <c r="EI66" s="5"/>
+      <c r="EJ66" s="5"/>
+      <c r="EK66" s="5"/>
+      <c r="EL66" s="5"/>
+      <c r="EM66" s="5"/>
+      <c r="EN66" s="5"/>
+      <c r="EO66" s="5"/>
+      <c r="EP66" s="5"/>
+      <c r="EQ66" s="5"/>
+      <c r="ER66" s="5"/>
+      <c r="ES66" s="5"/>
+      <c r="ET66" s="5"/>
+      <c r="EU66" s="5"/>
+      <c r="EV66" s="5"/>
+      <c r="EW66" s="5"/>
+      <c r="EX66" s="5"/>
+      <c r="EY66" s="5"/>
+      <c r="EZ66" s="5"/>
+      <c r="FA66" s="5"/>
+      <c r="FB66" s="5"/>
+      <c r="FC66" s="5"/>
+      <c r="FD66" s="5"/>
+      <c r="FE66" s="5"/>
+      <c r="FF66" s="5"/>
+      <c r="FG66" s="5"/>
+      <c r="FH66" s="5"/>
+      <c r="FI66" s="5"/>
+      <c r="FJ66" s="5"/>
+      <c r="FK66" s="5"/>
+      <c r="FL66" s="5"/>
+      <c r="FM66" s="5"/>
+      <c r="FN66" s="5"/>
+      <c r="FO66" s="5"/>
+      <c r="FP66" s="5"/>
+      <c r="FQ66" s="5"/>
+      <c r="FR66" s="5"/>
+      <c r="FS66" s="5"/>
+      <c r="FT66" s="5"/>
+      <c r="FU66" s="5"/>
+      <c r="FV66" s="5"/>
+      <c r="FW66" s="5"/>
+      <c r="FX66" s="5"/>
+      <c r="FY66" s="5"/>
+      <c r="FZ66" s="5"/>
+      <c r="GA66" s="5"/>
+      <c r="GB66" s="5"/>
+      <c r="GC66" s="5"/>
+      <c r="GD66" s="5"/>
+      <c r="GE66" s="5"/>
+      <c r="GF66" s="5"/>
+      <c r="GG66" s="5"/>
+      <c r="GH66" s="5"/>
+      <c r="GI66" s="5"/>
+      <c r="GJ66" s="5"/>
+      <c r="GK66" s="5"/>
+      <c r="GL66" s="5"/>
+      <c r="GM66" s="5"/>
+      <c r="GN66" s="5"/>
+      <c r="GO66" s="5"/>
+      <c r="GP66" s="5"/>
+      <c r="GQ66" s="5"/>
+      <c r="GR66" s="5"/>
+      <c r="GS66" s="5"/>
+      <c r="GT66" s="5"/>
+      <c r="GU66" s="5"/>
+      <c r="GV66" s="5"/>
+      <c r="GW66" s="5"/>
+      <c r="GX66" s="5"/>
+      <c r="GY66" s="5"/>
+      <c r="GZ66" s="5"/>
+      <c r="HA66" s="5"/>
+      <c r="HB66" s="5"/>
+      <c r="HC66" s="5"/>
+      <c r="HD66" s="5"/>
+      <c r="HE66" s="5"/>
+      <c r="HF66" s="5"/>
+      <c r="HG66" s="5"/>
+      <c r="HH66" s="5"/>
+      <c r="HI66" s="5"/>
+      <c r="HJ66" s="5"/>
+      <c r="HK66" s="5"/>
+      <c r="HL66" s="5"/>
+      <c r="HM66" s="5"/>
+      <c r="HN66" s="5"/>
+      <c r="HO66" s="5"/>
+      <c r="HP66" s="5"/>
+      <c r="HQ66" s="5"/>
+      <c r="HR66" s="5"/>
+      <c r="HS66" s="5"/>
+      <c r="HT66" s="5"/>
+      <c r="HU66" s="5"/>
+      <c r="HV66" s="5"/>
+      <c r="HW66" s="5"/>
+      <c r="HX66" s="5"/>
+      <c r="HY66" s="5"/>
+      <c r="HZ66" s="5"/>
+      <c r="IA66" s="5"/>
+      <c r="IB66" s="5"/>
+      <c r="IC66" s="5"/>
+      <c r="ID66" s="5"/>
+      <c r="IE66" s="5"/>
+      <c r="IF66" s="5"/>
+      <c r="IG66" s="5"/>
+      <c r="IH66" s="5"/>
+      <c r="II66" s="5"/>
+      <c r="IJ66" s="5"/>
+      <c r="IK66" s="5"/>
+      <c r="IL66" s="5"/>
+      <c r="IM66" s="5"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="27"/>
+    <row r="67" spans="1:247" ht="27.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>58</v>
+      </c>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="42">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="16"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+      <c r="BT67" s="5"/>
+      <c r="BU67" s="5"/>
+      <c r="BV67" s="5"/>
+      <c r="BW67" s="5"/>
+      <c r="BX67" s="5"/>
+      <c r="BY67" s="5"/>
+      <c r="BZ67" s="5"/>
+      <c r="CA67" s="5"/>
+      <c r="CB67" s="5"/>
+      <c r="CC67" s="5"/>
+      <c r="CD67" s="5"/>
+      <c r="CE67" s="5"/>
+      <c r="CF67" s="5"/>
+      <c r="CG67" s="5"/>
+      <c r="CH67" s="5"/>
+      <c r="CI67" s="5"/>
+      <c r="CJ67" s="5"/>
+      <c r="CK67" s="5"/>
+      <c r="CL67" s="5"/>
+      <c r="CM67" s="5"/>
+      <c r="CN67" s="5"/>
+      <c r="CO67" s="5"/>
+      <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
+      <c r="CT67" s="5"/>
+      <c r="CU67" s="5"/>
+      <c r="CV67" s="5"/>
+      <c r="CW67" s="5"/>
+      <c r="CX67" s="5"/>
+      <c r="CY67" s="5"/>
+      <c r="CZ67" s="5"/>
+      <c r="DA67" s="5"/>
+      <c r="DB67" s="5"/>
+      <c r="DC67" s="5"/>
+      <c r="DD67" s="5"/>
+      <c r="DE67" s="5"/>
+      <c r="DF67" s="5"/>
+      <c r="DG67" s="5"/>
+      <c r="DH67" s="5"/>
+      <c r="DI67" s="5"/>
+      <c r="DJ67" s="5"/>
+      <c r="DK67" s="5"/>
+      <c r="DL67" s="5"/>
+      <c r="DM67" s="5"/>
+      <c r="DN67" s="5"/>
+      <c r="DO67" s="5"/>
+      <c r="DP67" s="5"/>
+      <c r="DQ67" s="5"/>
+      <c r="DR67" s="5"/>
+      <c r="DS67" s="5"/>
+      <c r="DT67" s="5"/>
+      <c r="DU67" s="5"/>
+      <c r="DV67" s="5"/>
+      <c r="DW67" s="5"/>
+      <c r="DX67" s="5"/>
+      <c r="DY67" s="5"/>
+      <c r="DZ67" s="5"/>
+      <c r="EA67" s="5"/>
+      <c r="EB67" s="5"/>
+      <c r="EC67" s="5"/>
+      <c r="ED67" s="5"/>
+      <c r="EE67" s="5"/>
+      <c r="EF67" s="5"/>
+      <c r="EG67" s="5"/>
+      <c r="EH67" s="5"/>
+      <c r="EI67" s="5"/>
+      <c r="EJ67" s="5"/>
+      <c r="EK67" s="5"/>
+      <c r="EL67" s="5"/>
+      <c r="EM67" s="5"/>
+      <c r="EN67" s="5"/>
+      <c r="EO67" s="5"/>
+      <c r="EP67" s="5"/>
+      <c r="EQ67" s="5"/>
+      <c r="ER67" s="5"/>
+      <c r="ES67" s="5"/>
+      <c r="ET67" s="5"/>
+      <c r="EU67" s="5"/>
+      <c r="EV67" s="5"/>
+      <c r="EW67" s="5"/>
+      <c r="EX67" s="5"/>
+      <c r="EY67" s="5"/>
+      <c r="EZ67" s="5"/>
+      <c r="FA67" s="5"/>
+      <c r="FB67" s="5"/>
+      <c r="FC67" s="5"/>
+      <c r="FD67" s="5"/>
+      <c r="FE67" s="5"/>
+      <c r="FF67" s="5"/>
+      <c r="FG67" s="5"/>
+      <c r="FH67" s="5"/>
+      <c r="FI67" s="5"/>
+      <c r="FJ67" s="5"/>
+      <c r="FK67" s="5"/>
+      <c r="FL67" s="5"/>
+      <c r="FM67" s="5"/>
+      <c r="FN67" s="5"/>
+      <c r="FO67" s="5"/>
+      <c r="FP67" s="5"/>
+      <c r="FQ67" s="5"/>
+      <c r="FR67" s="5"/>
+      <c r="FS67" s="5"/>
+      <c r="FT67" s="5"/>
+      <c r="FU67" s="5"/>
+      <c r="FV67" s="5"/>
+      <c r="FW67" s="5"/>
+      <c r="FX67" s="5"/>
+      <c r="FY67" s="5"/>
+      <c r="FZ67" s="5"/>
+      <c r="GA67" s="5"/>
+      <c r="GB67" s="5"/>
+      <c r="GC67" s="5"/>
+      <c r="GD67" s="5"/>
+      <c r="GE67" s="5"/>
+      <c r="GF67" s="5"/>
+      <c r="GG67" s="5"/>
+      <c r="GH67" s="5"/>
+      <c r="GI67" s="5"/>
+      <c r="GJ67" s="5"/>
+      <c r="GK67" s="5"/>
+      <c r="GL67" s="5"/>
+      <c r="GM67" s="5"/>
+      <c r="GN67" s="5"/>
+      <c r="GO67" s="5"/>
+      <c r="GP67" s="5"/>
+      <c r="GQ67" s="5"/>
+      <c r="GR67" s="5"/>
+      <c r="GS67" s="5"/>
+      <c r="GT67" s="5"/>
+      <c r="GU67" s="5"/>
+      <c r="GV67" s="5"/>
+      <c r="GW67" s="5"/>
+      <c r="GX67" s="5"/>
+      <c r="GY67" s="5"/>
+      <c r="GZ67" s="5"/>
+      <c r="HA67" s="5"/>
+      <c r="HB67" s="5"/>
+      <c r="HC67" s="5"/>
+      <c r="HD67" s="5"/>
+      <c r="HE67" s="5"/>
+      <c r="HF67" s="5"/>
+      <c r="HG67" s="5"/>
+      <c r="HH67" s="5"/>
+      <c r="HI67" s="5"/>
+      <c r="HJ67" s="5"/>
+      <c r="HK67" s="5"/>
+      <c r="HL67" s="5"/>
+      <c r="HM67" s="5"/>
+      <c r="HN67" s="5"/>
+      <c r="HO67" s="5"/>
+      <c r="HP67" s="5"/>
+      <c r="HQ67" s="5"/>
+      <c r="HR67" s="5"/>
+      <c r="HS67" s="5"/>
+      <c r="HT67" s="5"/>
+      <c r="HU67" s="5"/>
+      <c r="HV67" s="5"/>
+      <c r="HW67" s="5"/>
+      <c r="HX67" s="5"/>
+      <c r="HY67" s="5"/>
+      <c r="HZ67" s="5"/>
+      <c r="IA67" s="5"/>
+      <c r="IB67" s="5"/>
+      <c r="IC67" s="5"/>
+      <c r="ID67" s="5"/>
+      <c r="IE67" s="5"/>
+      <c r="IF67" s="5"/>
+      <c r="IG67" s="5"/>
+      <c r="IH67" s="5"/>
+      <c r="II67" s="5"/>
+      <c r="IJ67" s="5"/>
+      <c r="IK67" s="5"/>
+      <c r="IL67" s="5"/>
+      <c r="IM67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="3.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="I68" s="16"/>
-      <c r="L68" s="29"/>
+    <row r="68" spans="1:247" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="36"/>
     </row>
-    <row r="69" spans="1:12" ht="3.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="34"/>
+    <row r="69" spans="1:247" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I70" s="16"/>
+    <row r="70" spans="1:247" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:247" ht="3.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
       <c r="I71" s="16"/>
+      <c r="L71" s="29"/>
     </row>
-    <row r="72" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:247" ht="3.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="34"/>
+    </row>
+    <row r="73" spans="1:247" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="1:247" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:247" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="84" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16902,9 +17564,9 @@
     <row r="106" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16991,6 +17653,9 @@
     <row r="197" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="198" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="199" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:L3"/>
@@ -16998,41 +17663,19 @@
     <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="D15:D16">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D10:E67">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>"入社"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="equal">
       <formula>"指"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
-      <formula>22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E37">
-    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"入社"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"指"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="42" stopIfTrue="1" operator="equal">
-      <formula>22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:E64">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"入社"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"指"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
       <formula>22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17078,7 +17721,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4">
         <f>'0830'!M1</f>
-        <v>45670.482070262493</v>
+        <v>45670.95098929145</v>
       </c>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
@@ -17540,21 +18183,21 @@
       <c r="IM2" s="5"/>
     </row>
     <row r="3" spans="1:247" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="str">
+      <c r="A3" s="55" t="str">
         <f>"就業日：　2023　年　"&amp;MONTH(M1)&amp;"　月　"&amp;DAY(M1)&amp;"　日（　"&amp;CHOOSE(WEEKDAY(M1),"日","月","火","水","木","金","土")&amp;"　）"</f>
         <v>就業日：　2023　年　1　月　13　日（　月　）</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
@@ -17790,11 +18433,11 @@
       <c r="I4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
@@ -18030,11 +18673,11 @@
       <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
@@ -18994,7 +19637,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>16</v>
@@ -19493,7 +20136,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="42">
         <v>0.41666666666666669</v>
@@ -19743,7 +20386,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="42">
         <v>0.41666666666666669</v>
@@ -19993,7 +20636,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="42">
         <v>0.41666666666666669</v>
@@ -20243,7 +20886,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G14" s="42">
         <v>0.41666666666666669</v>
@@ -20493,7 +21136,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="42">
         <v>0.41666666666666669</v>
@@ -20743,7 +21386,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16" s="42">
         <v>0.41666666666666669</v>
@@ -20993,7 +21636,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="42">
         <v>0.41666666666666669</v>
@@ -21243,7 +21886,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="42">
         <v>0.41666666666666669</v>
@@ -21493,7 +22136,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="42">
         <v>0.41666666666666669</v>
@@ -21743,7 +22386,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" s="42">
         <v>0.41666666666666669</v>
@@ -21993,7 +22636,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="42">
         <v>0.41666666666666669</v>
@@ -22243,7 +22886,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" s="42">
         <v>0.41666666666666669</v>
@@ -22493,7 +23136,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="42">
         <v>0.41666666666666669</v>
@@ -22740,7 +23383,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" s="42">
         <v>0.41666666666666669</v>
@@ -22987,7 +23630,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="42">
         <v>0.41666666666666669</v>
@@ -23234,7 +23877,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G26" s="42">
         <v>0.41666666666666669</v>
@@ -23481,7 +24124,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" s="42">
         <v>0.41666666666666669</v>
@@ -23720,7 +24363,7 @@
     </row>
     <row r="28" spans="1:247" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J28" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="36"/>
@@ -23731,7 +24374,7 @@
     </row>
     <row r="30" spans="1:247" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="24"/>
       <c r="D30" s="24"/>
